--- a/PHS/PHS/datasets/PHS_exercise_data.xlsx
+++ b/PHS/PHS/datasets/PHS_exercise_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="197">
   <si>
     <t>Exercise</t>
   </si>
@@ -31,7 +31,7 @@
     <t>back</t>
   </si>
   <si>
-    <t>leg</t>
+    <t>legs</t>
   </si>
   <si>
     <t>Gym</t>
@@ -590,6 +590,18 @@
   </si>
   <si>
     <t>Tricep Pushdown With Rope</t>
+  </si>
+  <si>
+    <t>Trap Bar Deadlifts</t>
+  </si>
+  <si>
+    <t>https://youtu.be/TU2xZ7s4jus?si=wdjwlw-XOUoTjtQ6</t>
+  </si>
+  <si>
+    <t>Bulgarian Split Squat</t>
+  </si>
+  <si>
+    <t>https://youtu.be/HBYGeyb4sSM?si=0mUhYnS4j9blvuo-</t>
   </si>
 </sst>
 </file>
@@ -4413,6 +4425,82 @@
         <v>37</v>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B93" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C93" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D93" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E93" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F93" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G93" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H93" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I93" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J93" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="K93" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L93" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B94" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C94" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D94" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E94" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F94" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G94" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H94" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I94" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J94" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="K94" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L94" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="L2"/>
@@ -4506,7 +4594,9 @@
     <hyperlink r:id="rId89" ref="L90"/>
     <hyperlink r:id="rId90" ref="L91"/>
     <hyperlink r:id="rId91" ref="L92"/>
+    <hyperlink r:id="rId92" ref="L93"/>
+    <hyperlink r:id="rId93" ref="L94"/>
   </hyperlinks>
-  <drawing r:id="rId92"/>
+  <drawing r:id="rId94"/>
 </worksheet>
 </file>